--- a/target/test-classes/excel/TCWExcelFile.xlsx
+++ b/target/test-classes/excel/TCWExcelFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>password</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>sa</t>
+  </si>
+  <si>
+    <t>*11/02/2022</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,8 +449,8 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>44603</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
